--- a/data_raw/stimulus_mapping_v2.xlsx
+++ b/data_raw/stimulus_mapping_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\HALT\data_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kilian\Documents\HALT\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DADD4B6-9360-46FC-BAFC-DCFE8F1454C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0925BF-DEB9-45BB-8095-9592E81D123A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D171EE-1973-48C0-BC27-6E268591BAD4}"/>
   </bookViews>
@@ -20,13 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -148,54 +141,36 @@
     <t>Po7B_Franssen_effect_-27_6dBFS_sine_1kHz_right_perception_quiet.wav</t>
   </si>
   <si>
-    <t>Wo1</t>
-  </si>
-  <si>
     <t>Wo1LPQ.wav</t>
   </si>
   <si>
     <t>Wo1LPQ_quiet.wav</t>
   </si>
   <si>
-    <t>Wo2</t>
-  </si>
-  <si>
     <t>Wo2LQP.wav</t>
   </si>
   <si>
     <t>Wo2LQP_quiet.wav</t>
   </si>
   <si>
-    <t>Wo3</t>
-  </si>
-  <si>
     <t>Wo3PLQ.wav</t>
   </si>
   <si>
     <t>Wo3PLQ_quiet.wav</t>
   </si>
   <si>
-    <t>Wo4</t>
-  </si>
-  <si>
     <t>Wo4PQL.wav</t>
   </si>
   <si>
     <t>Wo4PQL_quiet.wav</t>
   </si>
   <si>
-    <t>Wo5</t>
-  </si>
-  <si>
     <t>Wo5QLP.wav</t>
   </si>
   <si>
     <t>Wo5QLP_quiet.wav</t>
   </si>
   <si>
-    <t>Wo6</t>
-  </si>
-  <si>
     <t>Wo6QPL.wav</t>
   </si>
   <si>
@@ -329,6 +304,24 @@
   </si>
   <si>
     <t>quiet</t>
+  </si>
+  <si>
+    <t>Po13a</t>
+  </si>
+  <si>
+    <t>Po13b</t>
+  </si>
+  <si>
+    <t>Po13c</t>
+  </si>
+  <si>
+    <t>Po13d</t>
+  </si>
+  <si>
+    <t>Po13e</t>
+  </si>
+  <si>
+    <t>Po13f</t>
   </si>
 </sst>
 </file>
@@ -734,21 +727,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741B3418-8F75-49BA-8FF2-C27452CF45B1}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="3" max="3" width="88.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -800,10 +797,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -811,10 +808,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -822,10 +819,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -918,233 +915,233 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
